--- a/HTML/Jobs.xlsx
+++ b/HTML/Jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE05E8-FCFF-4CBB-9E8A-B2F1AC85110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634C4D9-C93C-4A89-B22B-3E4056DEE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="182">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -286,9 +286,6 @@
     <t>اسال هنا عن الشركه</t>
   </si>
   <si>
-    <t>yalla work</t>
-  </si>
-  <si>
     <t>Programming Jobs in Egypt</t>
   </si>
   <si>
@@ -349,24 +346,6 @@
     <t>Best Company</t>
   </si>
   <si>
-    <t>freelance me</t>
-  </si>
-  <si>
-    <t>jobs in dubai</t>
-  </si>
-  <si>
-    <t>expat</t>
-  </si>
-  <si>
-    <t>khamsat</t>
-  </si>
-  <si>
-    <t>99designs</t>
-  </si>
-  <si>
-    <t>toptal</t>
-  </si>
-  <si>
     <t>crowded</t>
   </si>
   <si>
@@ -536,13 +515,88 @@
   </si>
   <si>
     <t>El Client El Nasab</t>
+  </si>
+  <si>
+    <t>ITI</t>
+  </si>
+  <si>
+    <t>NTI</t>
+  </si>
+  <si>
+    <t>resume.io</t>
+  </si>
+  <si>
+    <t>cvfy.app</t>
+  </si>
+  <si>
+    <t>livecareer.co.uk</t>
+  </si>
+  <si>
+    <t>Fake Help :(</t>
+  </si>
+  <si>
+    <t>canva [ CV Builder ]</t>
+  </si>
+  <si>
+    <t>zety.com</t>
+  </si>
+  <si>
+    <t>cvmaker.com</t>
+  </si>
+  <si>
+    <t>app.flowcv.com</t>
+  </si>
+  <si>
+    <t>خمسات</t>
+  </si>
+  <si>
+    <t>مستقل</t>
+  </si>
+  <si>
+    <t>Freelance Me</t>
+  </si>
+  <si>
+    <t>Toptal</t>
+  </si>
+  <si>
+    <t>99 Designs</t>
+  </si>
+  <si>
+    <t>Worxmart</t>
+  </si>
+  <si>
+    <t>Jooble</t>
+  </si>
+  <si>
+    <t>Flex Jobs</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designers </t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>People/Hour</t>
+  </si>
+  <si>
+    <t>FLIPPING</t>
+  </si>
+  <si>
+    <t>Yalla Work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,14 +666,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -655,8 +701,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +766,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -736,12 +839,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,15 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -773,9 +879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -783,19 +886,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,7 +916,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -822,7 +925,50 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,232 +1258,236 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="26.140625" style="12"/>
-    <col min="9" max="9" width="24.42578125" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="26.140625" style="12"/>
+    <col min="1" max="8" width="26.140625" style="10"/>
+    <col min="9" max="9" width="24.42578125" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="26.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="A1" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="F9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="36" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1346,7 +1496,7 @@
     <hyperlink ref="H1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{BD41F396-D55D-4233-A472-875BDEC5164D}"/>
     <hyperlink ref="I1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{FA0F7D26-AB8F-41A4-8548-1E04E440AFF8}"/>
     <hyperlink ref="G2" r:id="rId3" display="https://www.men7h.com/" xr:uid="{A013764E-41A5-418C-9E96-DF11259C13D2}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://jobsindelta.com/" xr:uid="{2290708E-AC5C-4D0F-BB0B-8B2F2980D833}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://jobsindelta.com/" xr:uid="{2290708E-AC5C-4D0F-BB0B-8B2F2980D833}"/>
     <hyperlink ref="A2" r:id="rId5" display="https://www.msrjob.com/" xr:uid="{4BC3BD77-0760-4157-8564-0817FACB6558}"/>
     <hyperlink ref="D2" r:id="rId6" display="https://jobs.caoa.gov.eg/" xr:uid="{297832C6-AD2D-4B77-82CF-3FA9869D6B6B}"/>
     <hyperlink ref="B2" r:id="rId7" display="https://www.egycareers.com/" xr:uid="{42A48C70-B775-461A-BB1B-47698E610C1B}"/>
@@ -1368,28 +1518,28 @@
     <hyperlink ref="D4" r:id="rId23" display="https://jobmaster.jobmastergroup.com/" xr:uid="{6B0BF058-B648-423C-A0DB-FB7A8F4C657A}"/>
     <hyperlink ref="C4" r:id="rId24" display="https://www.facebook.com/andrewashraf.me" xr:uid="{D34F2574-A7DC-4951-A1EC-CF0FB7350022}"/>
     <hyperlink ref="F4" r:id="rId25" display="https://www.pgcareers.com/search-jobs?ascf=%5b%7b%27key%27:%27custom_fields.Language%27,%27value%27:%27English%27%7d,%5d&amp;alp=357994&amp;alt=2" xr:uid="{1C1D1263-78B9-4E48-982D-7C194A702FF7}"/>
-    <hyperlink ref="H5" r:id="rId26" display="https://itida.gov.eg/Arabic/Pages/default.aspx" xr:uid="{9D91648C-D91A-4FB8-B32D-7485B79DF26B}"/>
-    <hyperlink ref="A5" r:id="rId27" display="https://www.facebook.com/marketplace/?_rdc=2" xr:uid="{03485D27-08A8-44F0-83D2-CB3792AF7B51}"/>
-    <hyperlink ref="B5" r:id="rId28" display="https://www.olx.com.eg/en/myaccount" xr:uid="{77F576E0-36B2-4794-AA7B-BC927C0B889B}"/>
+    <hyperlink ref="C8" r:id="rId26" display="https://itida.gov.eg/Arabic/Pages/default.aspx" xr:uid="{9D91648C-D91A-4FB8-B32D-7485B79DF26B}"/>
+    <hyperlink ref="E9" r:id="rId27" display="https://www.facebook.com/marketplace/?_rdc=2" xr:uid="{03485D27-08A8-44F0-83D2-CB3792AF7B51}"/>
+    <hyperlink ref="F9" r:id="rId28" display="https://www.olx.com.eg/en/myaccount" xr:uid="{77F576E0-36B2-4794-AA7B-BC927C0B889B}"/>
     <hyperlink ref="A6" r:id="rId29" display="https://www.facebook.com/groups/ITJCS/" xr:uid="{CBB7F789-79E1-47CB-A5A0-30AC0C074BBE}"/>
-    <hyperlink ref="B6" r:id="rId30" display="https://www.facebook.com/groups/jobsandvacancies" xr:uid="{CE95B1C9-3F6F-4CE7-8618-826AEDD63F35}"/>
-    <hyperlink ref="C6" r:id="rId31" display="https://www.facebook.com/groups/976429042558188" xr:uid="{3495D403-62B3-4EEA-8F45-B91F08CFB1E9}"/>
+    <hyperlink ref="G5" r:id="rId30" display="https://www.facebook.com/groups/jobsandvacancies" xr:uid="{CE95B1C9-3F6F-4CE7-8618-826AEDD63F35}"/>
+    <hyperlink ref="H5" r:id="rId31" display="https://www.facebook.com/groups/976429042558188" xr:uid="{3495D403-62B3-4EEA-8F45-B91F08CFB1E9}"/>
     <hyperlink ref="D6" r:id="rId32" display="https://www.facebook.com/groups/ITjobsinEgyopt" xr:uid="{B9A6011E-3F52-47BD-AFD0-FB9D6FA82CC7}"/>
     <hyperlink ref="E6" r:id="rId33" display="https://www.facebook.com/groups/1056006427821002" xr:uid="{6202CD7E-0105-4CF9-A222-CC5F5B18AF3A}"/>
     <hyperlink ref="F6" r:id="rId34" display="https://www.facebook.com/groups/ITJobsEGY" xr:uid="{977394D7-6637-423E-8F71-7BD8B0733741}"/>
-    <hyperlink ref="E5" r:id="rId35" display="https://www.facebook.com/groups/EgyptianGeeksJobs" xr:uid="{FCF1C1D7-5A34-4D41-82E0-DF976FB231D6}"/>
+    <hyperlink ref="C5" r:id="rId35" display="https://www.facebook.com/groups/EgyptianGeeksJobs" xr:uid="{FCF1C1D7-5A34-4D41-82E0-DF976FB231D6}"/>
     <hyperlink ref="G4" r:id="rId36" display="https://www.facebook.com/ShaghalniOfficial" xr:uid="{919B735E-630A-4CA8-8985-B8FDA6560229}"/>
     <hyperlink ref="A7" r:id="rId37" display="https://www.facebook.com/groups/cs.jobs.egypt" xr:uid="{908EC66C-09D5-4CB6-AF23-4BB991DBF232}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://www.facebook.com/groups/FCISGraduateGroup" xr:uid="{644E55C7-CF10-4724-9FFD-C0E35A883CEB}"/>
-    <hyperlink ref="G6" r:id="rId39" display="https://www.facebook.com/yallawork.ngo" xr:uid="{22522BFD-12AA-4D36-A408-0A0B4C2A12EA}"/>
-    <hyperlink ref="G5" r:id="rId40" display="https://www.facebook.com/groups/409017716170873" xr:uid="{9C2814AE-01D3-4F14-9732-B3C215EC612D}"/>
-    <hyperlink ref="E7" r:id="rId41" display="https://www.facebook.com/groups/20084719473/" xr:uid="{9501E00A-A5CF-478D-A60F-CED4984D3987}"/>
-    <hyperlink ref="F7" r:id="rId42" display="https://www.facebook.com/groups/543685022330047/" xr:uid="{F3CF5826-DFB0-4D6C-BD90-2140AA768BC4}"/>
-    <hyperlink ref="G7" r:id="rId43" display="https://www.facebook.com/24sjobtalkegy/" xr:uid="{215DDE7D-7D0F-4886-927E-382FDF62CE32}"/>
+    <hyperlink ref="F5" r:id="rId39" display="https://www.facebook.com/yallawork.ngo" xr:uid="{22522BFD-12AA-4D36-A408-0A0B4C2A12EA}"/>
+    <hyperlink ref="E5" r:id="rId40" display="https://www.facebook.com/groups/409017716170873" xr:uid="{9C2814AE-01D3-4F14-9732-B3C215EC612D}"/>
+    <hyperlink ref="B6" r:id="rId41" display="https://www.facebook.com/groups/20084719473/" xr:uid="{9501E00A-A5CF-478D-A60F-CED4984D3987}"/>
+    <hyperlink ref="C6" r:id="rId42" display="https://www.facebook.com/groups/543685022330047/" xr:uid="{F3CF5826-DFB0-4D6C-BD90-2140AA768BC4}"/>
+    <hyperlink ref="G6" r:id="rId43" display="https://www.facebook.com/24sjobtalkegy/" xr:uid="{215DDE7D-7D0F-4886-927E-382FDF62CE32}"/>
     <hyperlink ref="A8" r:id="rId44" display="https://secc.org.eg/arabic/pages/default.aspx" xr:uid="{E30169F3-72EC-4AED-A4C2-1DBBE040A544}"/>
     <hyperlink ref="B8" r:id="rId45" display="https://tiec.gov.eg/Arabic/Pages/default.aspx" xr:uid="{DA608EA0-B07D-4077-B1B0-C76E8D071E8B}"/>
     <hyperlink ref="E4" r:id="rId46" display="http://www.ibsns.com/" xr:uid="{6601945B-4F9E-4A9B-84CD-F1DFA666D41B}"/>
-    <hyperlink ref="H7" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
+    <hyperlink ref="I8" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
     <hyperlink ref="F1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
     <hyperlink ref="A1" location="Help!A1" display="Help ! " xr:uid="{B87F116D-5C61-4F41-A72E-D64B9F2CD490}"/>
     <hyperlink ref="G1" location="Markets!A1" display="أسواق" xr:uid="{2F7750BA-E0E5-4647-ABBC-A4861BF862D9}"/>
@@ -1397,12 +1547,13 @@
     <hyperlink ref="D1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
     <hyperlink ref="B7" r:id="rId48" display="https://www.facebook.com/groups/449381225595822/" xr:uid="{B7ECC880-7110-47EA-912B-7DB323C6C332}"/>
     <hyperlink ref="E1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
-    <hyperlink ref="D5" r:id="rId49" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
-    <hyperlink ref="F5" r:id="rId50" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
+    <hyperlink ref="B5" r:id="rId49" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
+    <hyperlink ref="D5" r:id="rId50" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
     <hyperlink ref="B4" r:id="rId51" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
+    <hyperlink ref="I9" r:id="rId52" display="Home" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -1411,92 +1562,96 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1514,9 +1669,11 @@
     <hyperlink ref="A1" r:id="rId11" display="https://www.facebook.com/groups/314004286793745" xr:uid="{8F7A473A-EF3C-483C-9B01-9593641A5A6C}"/>
     <hyperlink ref="C1" r:id="rId12" display="https://www.facebook.com/groups/463038787444078" xr:uid="{2BDF2261-ECA7-455F-A006-CFCB7503AC53}"/>
     <hyperlink ref="E1" r:id="rId13" display="https://www.facebook.com/internmenow2020" xr:uid="{FFE61378-450C-449F-8F5D-9EF7171085F5}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{3A316707-D580-4272-B540-DB400215CAC8}"/>
+    <hyperlink ref="C3" r:id="rId15" xr:uid="{FEAE126F-8F98-4C5E-9DDC-7E52F2FEED1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1541,11 +1698,11 @@
         <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
-        <v>148</v>
+        <v>94</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,32 +1716,32 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1599,8 +1756,8 @@
       <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1643,190 +1800,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>148</v>
+      <c r="F1" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>1153332210</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="25"/>
+      <c r="F17" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1857,90 +2014,90 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="31" style="16"/>
+    <col min="1" max="16384" width="31" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1968,190 +2125,372 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AF9BC-2390-432A-B21F-EAF301459FA9}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28" style="33" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="33" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="33" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.javatpoint.com/interview-questions-and-answers" xr:uid="{D5C697F3-2DD8-447E-A8DD-73AEF82422D0}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/sou2el3amal" xr:uid="{308C553F-ADF1-4684-BA5F-0A082547DA55}"/>
     <hyperlink ref="G1" location="Jobs!A1" display="Back &lt;--" xr:uid="{476E36DB-B602-4E57-94BE-18E5999E5157}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.thebalancecareers.com/sample-email-job-application-letter-2061608" xr:uid="{96D17146-F3B6-4138-9F77-7A9798547A51}"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.facebook.com/groups/402958410979164" xr:uid="{FA54E9FE-2A54-44CD-BD62-611128297E25}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.facebook.com/groups/Dont.Work.Here" xr:uid="{330448EF-CEEF-43A1-A916-7AF52BD5D24F}"/>
-    <hyperlink ref="B4" r:id="rId6" display="https://www.facebook.com/groups/767725120055206" xr:uid="{CBCF320A-F864-4CD3-95AC-7C6A995556DA}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.thebalancecareers.com/sample-email-job-application-letter-2061608" xr:uid="{96D17146-F3B6-4138-9F77-7A9798547A51}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://www.facebook.com/groups/402958410979164" xr:uid="{FA54E9FE-2A54-44CD-BD62-611128297E25}"/>
+    <hyperlink ref="A3" r:id="rId5" display="https://www.facebook.com/groups/Dont.Work.Here" xr:uid="{330448EF-CEEF-43A1-A916-7AF52BD5D24F}"/>
+    <hyperlink ref="B3" r:id="rId6" display="https://www.facebook.com/groups/767725120055206" xr:uid="{CBCF320A-F864-4CD3-95AC-7C6A995556DA}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{4E1BBCA2-7EDC-40C9-BBAD-072C507E7993}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A366A20-45AB-4738-AE10-5DBEE540878C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="21.7109375" style="8"/>
+    <col min="1" max="4" width="24.85546875" style="32"/>
+    <col min="5" max="5" width="28.28515625" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="24.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="H3" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A8:H8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{3118D51B-CFE0-4C3B-98F0-913AC1D747CC}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{0A9569F5-8800-4CEE-BDD2-BC19D54984E4}"/>
     <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{3580AB25-53B8-41B4-B2F6-24686492A8B8}"/>
     <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{E8254F43-5B3D-475F-B73E-ADDCA950D315}"/>
-    <hyperlink ref="E1" r:id="rId5" display="https://bestcompany.com/" xr:uid="{D40FB8A2-920A-426C-83EE-0488828D08ED}"/>
-    <hyperlink ref="F1" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{BDC710D2-4847-4B1D-AB60-00F3FFB329F8}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.jobsindubai.com/" xr:uid="{333C19A7-FDAD-4DDD-A722-9D097EDC2821}"/>
-    <hyperlink ref="B2" r:id="rId8" display="https://www.expat.com/" xr:uid="{F5B9C3E7-8B50-4E34-A7D7-04550BA915D7}"/>
-    <hyperlink ref="C2" r:id="rId9" display="https://khamsat.com/" xr:uid="{BC8F7729-88BE-418A-9304-DBC0EDA9A86A}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://99designs.com/" xr:uid="{7C01B712-DCF6-4B15-A475-5DBF4A377503}"/>
-    <hyperlink ref="E2" r:id="rId11" display="https://www.toptal.com/" xr:uid="{97878E78-55B1-46FA-A024-25AA1CEE3D5E}"/>
-    <hyperlink ref="F2" r:id="rId12" display="https://www.crowded.com/" xr:uid="{B05BA28D-4656-4084-BA1A-195B6EFC96E7}"/>
-    <hyperlink ref="G3" location="Jobs!A1" display="Back &lt;--" xr:uid="{BA23FE8A-761D-42A0-AD4B-164F0A25B2F1}"/>
+    <hyperlink ref="G3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{D40FB8A2-920A-426C-83EE-0488828D08ED}"/>
+    <hyperlink ref="A12" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{BDC710D2-4847-4B1D-AB60-00F3FFB329F8}"/>
+    <hyperlink ref="A6" r:id="rId7" display="https://khamsat.com/" xr:uid="{BC8F7729-88BE-418A-9304-DBC0EDA9A86A}"/>
+    <hyperlink ref="H3" r:id="rId8" display="https://99designs.com/" xr:uid="{7C01B712-DCF6-4B15-A475-5DBF4A377503}"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{97878E78-55B1-46FA-A024-25AA1CEE3D5E}"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{B05BA28D-4656-4084-BA1A-195B6EFC96E7}"/>
+    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{BA23FE8A-761D-42A0-AD4B-164F0A25B2F1}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{ED8CBB0C-1586-4D0F-AAFA-CBB4E738467E}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{2C16371D-93AE-4557-8580-B519C5C4F9F5}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{C08B5756-2974-4B38-93E4-CB7DA20EAE27}"/>
+    <hyperlink ref="A3" r:id="rId14" xr:uid="{1C6EDB05-B0A4-41D0-B71F-6BACD90C4175}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{77DADD7C-6906-491A-92FA-BE4C9763A57D}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{5AD40EDC-AD67-47B8-BD78-747EB1750797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2187,8 +2526,8 @@
       <c r="F1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2209,20 +2548,20 @@
       <c r="F2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="19" t="s">
-        <v>148</v>
+      <c r="G2" s="6"/>
+      <c r="H2" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2258,107 +2597,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="27" t="s">
+      <c r="A1" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HTML/Jobs.xlsx
+++ b/HTML/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634C4D9-C93C-4A89-B22B-3E4056DEE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B667B0-D857-4F8B-97AB-08A5B53091A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="2" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Banks" sheetId="4" r:id="rId5"/>
     <sheet name="Help" sheetId="6" r:id="rId6"/>
     <sheet name="FreeLancer" sheetId="3" r:id="rId7"/>
-    <sheet name="Markets" sheetId="8" r:id="rId8"/>
-    <sheet name="O-Lvl" sheetId="9" r:id="rId9"/>
+    <sheet name="FreelancersPeople" sheetId="11" r:id="rId8"/>
+    <sheet name="Markets" sheetId="8" r:id="rId9"/>
+    <sheet name="O-Lvl" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="184">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -590,13 +591,19 @@
   </si>
   <si>
     <t>Yalla Work</t>
+  </si>
+  <si>
+    <t>Freelancers People</t>
+  </si>
+  <si>
+    <t>Learn With Marie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +753,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -853,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,6 +986,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1257,8 +1274,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1557,6 +1574,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="21.5703125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:I5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://union-courier.net/BM_Portal_1.html" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://uxcenters.com/" xr:uid="{1D29879C-7C8C-4F5F-BF12-EB1F6C1BA462}"/>
+    <hyperlink ref="F2" r:id="rId6" display="https://www.xceedcc.com/" xr:uid="{6A716BD9-49EA-4976-9305-216AC0A6B494}"/>
+    <hyperlink ref="G2" r:id="rId7" display="https://www.rayacx.com/" xr:uid="{AC099443-51B6-42A8-ABFD-4A12DB4BAF1B}"/>
+    <hyperlink ref="H2" r:id="rId8" display="https://www.majorel.com/" xr:uid="{57D91799-288F-45DF-8B4E-4E3D1C8403A0}"/>
+    <hyperlink ref="I1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4E155103-D4BF-42ED-BFF9-D6E7DAA07C66}"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://youth.europa.eu/solidarity/placement/32596_en" xr:uid="{A3EB02E2-0776-4964-B173-4B4FECA90B33}"/>
+    <hyperlink ref="A7" r:id="rId10" display="https://www.stepstone.de/?authEvent=googleRegister&amp;lang=de" xr:uid="{131D3D21-4748-4CE2-9D8F-DEF73D2FDAC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554487A-54EF-41D6-AFA4-61C62506A526}">
   <dimension ref="A1:G6"/>
@@ -2284,14 +2440,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="24.85546875" style="32"/>
     <col min="5" max="5" width="28.28515625" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="24.85546875" style="32"/>
+    <col min="6" max="7" width="24.85546875" style="32"/>
+    <col min="8" max="8" width="32.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="24.85546875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2462,7 +2620,9 @@
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2488,6 +2648,7 @@
     <hyperlink ref="A3" r:id="rId14" xr:uid="{1C6EDB05-B0A4-41D0-B71F-6BACD90C4175}"/>
     <hyperlink ref="A9" r:id="rId15" xr:uid="{77DADD7C-6906-491A-92FA-BE4C9763A57D}"/>
     <hyperlink ref="B3" r:id="rId16" xr:uid="{5AD40EDC-AD67-47B8-BD78-747EB1750797}"/>
+    <hyperlink ref="H13" location="FreelancersPeople!A1" display="Freelancers People" xr:uid="{2609BFF3-38AF-409F-8923-4FC5B9D6D4C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -2495,6 +2656,238 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE8946F-1CF4-43E9-B285-833831E147AE}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C9E239ED-A517-4366-9D77-17BB6CF4DAC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E51287-1DA7-42BA-90C4-2B6689042D42}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2581,143 +2974,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="21.5703125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://union-courier.net/BM_Portal_1.html" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://uxcenters.com/" xr:uid="{1D29879C-7C8C-4F5F-BF12-EB1F6C1BA462}"/>
-    <hyperlink ref="F2" r:id="rId6" display="https://www.xceedcc.com/" xr:uid="{6A716BD9-49EA-4976-9305-216AC0A6B494}"/>
-    <hyperlink ref="G2" r:id="rId7" display="https://www.rayacx.com/" xr:uid="{AC099443-51B6-42A8-ABFD-4A12DB4BAF1B}"/>
-    <hyperlink ref="H2" r:id="rId8" display="https://www.majorel.com/" xr:uid="{57D91799-288F-45DF-8B4E-4E3D1C8403A0}"/>
-    <hyperlink ref="I1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4E155103-D4BF-42ED-BFF9-D6E7DAA07C66}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://youth.europa.eu/solidarity/placement/32596_en" xr:uid="{A3EB02E2-0776-4964-B173-4B4FECA90B33}"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://www.stepstone.de/?authEvent=googleRegister&amp;lang=de" xr:uid="{131D3D21-4748-4CE2-9D8F-DEF73D2FDAC7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-</worksheet>
 </file>
--- a/HTML/Jobs.xlsx
+++ b/HTML/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B667B0-D857-4F8B-97AB-08A5B53091A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEA08DC-A013-4EB7-A819-015FE7F07434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,8 @@
     <sheet name="Tech Co" sheetId="1" r:id="rId4"/>
     <sheet name="Banks" sheetId="4" r:id="rId5"/>
     <sheet name="Help" sheetId="6" r:id="rId6"/>
-    <sheet name="FreeLancer" sheetId="3" r:id="rId7"/>
-    <sheet name="FreelancersPeople" sheetId="11" r:id="rId8"/>
-    <sheet name="Markets" sheetId="8" r:id="rId9"/>
-    <sheet name="O-Lvl" sheetId="9" r:id="rId10"/>
+    <sheet name="Markets" sheetId="8" r:id="rId7"/>
+    <sheet name="O-Lvl" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -332,24 +330,6 @@
     <t>العربي جروب</t>
   </si>
   <si>
-    <t>Up Work</t>
-  </si>
-  <si>
-    <t>Freelancer</t>
-  </si>
-  <si>
-    <t>Fiverr</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>Best Company</t>
-  </si>
-  <si>
-    <t>crowded</t>
-  </si>
-  <si>
     <t>Inova EG</t>
   </si>
   <si>
@@ -401,9 +381,6 @@
     <t>HSBC</t>
   </si>
   <si>
-    <t>بنك الاسكندرية</t>
-  </si>
-  <si>
     <t>Fab Misr</t>
   </si>
   <si>
@@ -548,62 +525,23 @@
     <t>app.flowcv.com</t>
   </si>
   <si>
-    <t>خمسات</t>
-  </si>
-  <si>
-    <t>مستقل</t>
-  </si>
-  <si>
-    <t>Freelance Me</t>
-  </si>
-  <si>
-    <t>Toptal</t>
-  </si>
-  <si>
-    <t>99 Designs</t>
-  </si>
-  <si>
-    <t>Worxmart</t>
-  </si>
-  <si>
-    <t>Jooble</t>
-  </si>
-  <si>
-    <t>Flex Jobs</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designers </t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>People/Hour</t>
-  </si>
-  <si>
     <t>FLIPPING</t>
   </si>
   <si>
     <t>Yalla Work</t>
   </si>
   <si>
-    <t>Freelancers People</t>
-  </si>
-  <si>
-    <t>Learn With Marie</t>
+    <t>QNB</t>
+  </si>
+  <si>
+    <t>Alex Bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,21 +647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -753,16 +676,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,12 +699,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,20 +855,8 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,26 +865,18 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,47 +1161,52 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="26.140625" style="10"/>
-    <col min="9" max="9" width="24.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="10"/>
+    <col min="2" max="2" width="23.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="10"/>
+    <col min="4" max="4" width="25.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="21" style="10" customWidth="1"/>
     <col min="10" max="16384" width="26.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>132</v>
+      <c r="A1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1355,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
@@ -1373,7 +1267,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
@@ -1406,13 +1300,13 @@
         <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>69</v>
@@ -1483,35 +1377,45 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="37" t="s">
-        <v>146</v>
+      <c r="I8" s="33" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="36" t="s">
-        <v>141</v>
-      </c>
+      <c r="I9" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="FreeLancer!A1" display="[Freelancer]" xr:uid="{ED956D8B-E47B-42E2-83DE-E5D710FA9F19}"/>
-    <hyperlink ref="C1" location="Banks!A1" display="[Banks]" xr:uid="{C4C66F48-7D2A-4D5E-ADA0-D9D15EDFE91F}"/>
-    <hyperlink ref="H1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{BD41F396-D55D-4233-A472-875BDEC5164D}"/>
-    <hyperlink ref="I1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{FA0F7D26-AB8F-41A4-8548-1E04E440AFF8}"/>
+    <hyperlink ref="B1" location="Banks!A1" display="[Banks]" xr:uid="{C4C66F48-7D2A-4D5E-ADA0-D9D15EDFE91F}"/>
+    <hyperlink ref="G1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{BD41F396-D55D-4233-A472-875BDEC5164D}"/>
+    <hyperlink ref="H1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{FA0F7D26-AB8F-41A4-8548-1E04E440AFF8}"/>
     <hyperlink ref="G2" r:id="rId3" display="https://www.men7h.com/" xr:uid="{A013764E-41A5-418C-9E96-DF11259C13D2}"/>
     <hyperlink ref="A5" r:id="rId4" display="https://jobsindelta.com/" xr:uid="{2290708E-AC5C-4D0F-BB0B-8B2F2980D833}"/>
     <hyperlink ref="A2" r:id="rId5" display="https://www.msrjob.com/" xr:uid="{4BC3BD77-0760-4157-8564-0817FACB6558}"/>
@@ -1557,13 +1461,13 @@
     <hyperlink ref="B8" r:id="rId45" display="https://tiec.gov.eg/Arabic/Pages/default.aspx" xr:uid="{DA608EA0-B07D-4077-B1B0-C76E8D071E8B}"/>
     <hyperlink ref="E4" r:id="rId46" display="http://www.ibsns.com/" xr:uid="{6601945B-4F9E-4A9B-84CD-F1DFA666D41B}"/>
     <hyperlink ref="I8" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
-    <hyperlink ref="F1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
+    <hyperlink ref="E1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
     <hyperlink ref="A1" location="Help!A1" display="Help ! " xr:uid="{B87F116D-5C61-4F41-A72E-D64B9F2CD490}"/>
-    <hyperlink ref="G1" location="Markets!A1" display="أسواق" xr:uid="{2F7750BA-E0E5-4647-ABBC-A4861BF862D9}"/>
+    <hyperlink ref="F1" location="Markets!A1" display="أسواق" xr:uid="{2F7750BA-E0E5-4647-ABBC-A4861BF862D9}"/>
     <hyperlink ref="D7" r:id="rId47" display="https://www.facebook.com/groups/314004286793745" xr:uid="{03AD6884-5A14-43DB-9FB1-DD16E18C84CE}"/>
-    <hyperlink ref="D1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
+    <hyperlink ref="C1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
     <hyperlink ref="B7" r:id="rId48" display="https://www.facebook.com/groups/449381225595822/" xr:uid="{B7ECC880-7110-47EA-912B-7DB323C6C332}"/>
-    <hyperlink ref="E1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
+    <hyperlink ref="D1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
     <hyperlink ref="B5" r:id="rId49" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
     <hyperlink ref="D5" r:id="rId50" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
     <hyperlink ref="B4" r:id="rId51" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
@@ -1571,145 +1475,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="21.5703125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A5:I5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://union-courier.net/BM_Portal_1.html" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://uxcenters.com/" xr:uid="{1D29879C-7C8C-4F5F-BF12-EB1F6C1BA462}"/>
-    <hyperlink ref="F2" r:id="rId6" display="https://www.xceedcc.com/" xr:uid="{6A716BD9-49EA-4976-9305-216AC0A6B494}"/>
-    <hyperlink ref="G2" r:id="rId7" display="https://www.rayacx.com/" xr:uid="{AC099443-51B6-42A8-ABFD-4A12DB4BAF1B}"/>
-    <hyperlink ref="H2" r:id="rId8" display="https://www.majorel.com/" xr:uid="{57D91799-288F-45DF-8B4E-4E3D1C8403A0}"/>
-    <hyperlink ref="I1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4E155103-D4BF-42ED-BFF9-D6E7DAA07C66}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://youth.europa.eu/solidarity/placement/32596_en" xr:uid="{A3EB02E2-0776-4964-B173-4B4FECA90B33}"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://www.stepstone.de/?authEvent=googleRegister&amp;lang=de" xr:uid="{131D3D21-4748-4CE2-9D8F-DEF73D2FDAC7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1725,23 +1490,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1761,10 +1526,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1858,7 +1623,7 @@
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1646,7 @@
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>91</v>
@@ -1972,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,10 +1758,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2005,7 +1770,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2015,10 +1780,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -2027,49 +1792,49 @@
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F9" s="22"/>
     </row>
@@ -2115,13 +1880,13 @@
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -2162,69 +1927,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB56B96-DA60-4871-ABFB-0C91284AC1F1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31" defaultRowHeight="51" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="51" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="31" style="13"/>
+    <col min="1" max="8" width="31" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -2236,25 +2004,33 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="16" t="s">
-        <v>141</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
+      <c r="F6" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.linkedin.com/company/banque-misr/jobs" xr:uid="{DB557C5C-278D-4D94-9166-9ACC48BB3C5A}"/>
@@ -2263,17 +2039,18 @@
     <hyperlink ref="D1" r:id="rId4" display="https://www.attijariwafabank.com.eg/career" xr:uid="{23B39F56-B321-41CB-A132-FA9BE491AC3C}"/>
     <hyperlink ref="E1" r:id="rId5" display="https://mycareer.hsbc.com/en_GB/external/SearchJobs/?1017=%5B67230%5D&amp;1017_format=812&amp;listFilterMode=1&amp;pipelineRecordsPerPage=10&amp;pipelineOffset=0" xr:uid="{A90D2182-7631-4494-94E4-9429D7949A7B}"/>
     <hyperlink ref="A2" r:id="rId6" display="https://www.linkedin.com/company/bank-of-alexandria/jobs" xr:uid="{52301C58-21A0-4265-AD19-AF9C15FDE733}"/>
-    <hyperlink ref="B2" r:id="rId7" display="https://www.fabmisr.com.eg/en/about-fab/careers/apply-career" xr:uid="{70B6FF67-1D98-4DD8-A2C8-30C931DC26C5}"/>
-    <hyperlink ref="C2" r:id="rId8" display="https://www.aibegypt.com/career/" xr:uid="{8A094EAD-51E7-4521-AB83-FB7F7B0B26CE}"/>
-    <hyperlink ref="D2" r:id="rId9" display="https://careers.eahli.com/go/Retail-Banking-%28Branches%29/4313901" xr:uid="{E892E154-D2C6-477E-BD61-021A75CBF35E}"/>
-    <hyperlink ref="E2" r:id="rId10" display="https://career2.successfactors.eu/career?company=egyptiangu&amp;career%5fns=job%5flisting%5fsummary&amp;navBarLevel=JOB%5fSEARCH&amp;_s.crb=a%2bBUZ2MKAE9LTaGcjuvSsCMhxPKwssmmF3cnHBJ%2bLFc%3d" xr:uid="{EF72DBD0-413F-48EB-A45F-FF9D1B0B2E86}"/>
-    <hyperlink ref="A3" r:id="rId11" display="https://www.bdc.com.eg/bdcwebsite/careers.html" xr:uid="{7DBE5839-7348-4BD2-BBFD-EFE18FE1EC49}"/>
-    <hyperlink ref="B3" r:id="rId12" display="https://cibeg.taleo.net/careersection/cib_ex/jobsearch.ftl" xr:uid="{47A037A2-A2F9-4171-9EC3-F5EB1EB18D94}"/>
-    <hyperlink ref="C3" r:id="rId13" display="https://www.adcb.com.eg/about-us/careers/apply-now/" xr:uid="{B7439791-B305-4647-BBD9-9EC453CA3213}"/>
-    <hyperlink ref="D3" r:id="rId14" display="https://midbank.com.eg/Job.aspx?Lid=10" xr:uid="{603E97A4-C2D7-491C-A348-8127B524377F}"/>
-    <hyperlink ref="E3" r:id="rId15" display="https://arabbank.taleo.net/careersection/ab_external/joblist.ftl" xr:uid="{6A4781E1-B27C-4E51-BC1E-FE7A1C62E287}"/>
-    <hyperlink ref="A5" r:id="rId16" display="http://www.howtobeabanker.com/" xr:uid="{407F538B-DB10-4E32-B33E-4721B2083D88}"/>
-    <hyperlink ref="E5" location="Jobs!A1" display="Back &lt;--" xr:uid="{173DE094-30CD-4A3F-9B5B-8A0E8C0D8276}"/>
+    <hyperlink ref="E2" r:id="rId7" display="https://www.fabmisr.com.eg/en/about-fab/careers/apply-career" xr:uid="{70B6FF67-1D98-4DD8-A2C8-30C931DC26C5}"/>
+    <hyperlink ref="A3" r:id="rId8" display="https://www.aibegypt.com/career/" xr:uid="{8A094EAD-51E7-4521-AB83-FB7F7B0B26CE}"/>
+    <hyperlink ref="F2" r:id="rId9" display="https://careers.eahli.com/go/Retail-Banking-%28Branches%29/4313901" xr:uid="{E892E154-D2C6-477E-BD61-021A75CBF35E}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://career2.successfactors.eu/career?company=egyptiangu&amp;career%5fns=job%5flisting%5fsummary&amp;navBarLevel=JOB%5fSEARCH&amp;_s.crb=a%2bBUZ2MKAE9LTaGcjuvSsCMhxPKwssmmF3cnHBJ%2bLFc%3d" xr:uid="{EF72DBD0-413F-48EB-A45F-FF9D1B0B2E86}"/>
+    <hyperlink ref="C2" r:id="rId11" display="https://www.bdc.com.eg/bdcwebsite/careers.html" xr:uid="{7DBE5839-7348-4BD2-BBFD-EFE18FE1EC49}"/>
+    <hyperlink ref="F1" r:id="rId12" display="https://cibeg.taleo.net/careersection/cib_ex/jobsearch.ftl" xr:uid="{47A037A2-A2F9-4171-9EC3-F5EB1EB18D94}"/>
+    <hyperlink ref="B3" r:id="rId13" display="https://www.adcb.com.eg/about-us/careers/apply-now/" xr:uid="{B7439791-B305-4647-BBD9-9EC453CA3213}"/>
+    <hyperlink ref="C3" r:id="rId14" display="https://midbank.com.eg/Job.aspx?Lid=10" xr:uid="{603E97A4-C2D7-491C-A348-8127B524377F}"/>
+    <hyperlink ref="D3" r:id="rId15" display="https://arabbank.taleo.net/careersection/ab_external/joblist.ftl" xr:uid="{6A4781E1-B27C-4E51-BC1E-FE7A1C62E287}"/>
+    <hyperlink ref="A6" r:id="rId16" display="http://www.howtobeabanker.com/" xr:uid="{407F538B-DB10-4E32-B33E-4721B2083D88}"/>
+    <hyperlink ref="F6" location="Jobs!A1" display="Back &lt;--" xr:uid="{173DE094-30CD-4A3F-9B5B-8A0E8C0D8276}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{BA5C4275-FB61-4F21-9800-54E3C855CF46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2289,11 +2066,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" style="33" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="33" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="33" hidden="1"/>
+    <col min="1" max="1" width="28" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="29" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="29" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2308,7 +2085,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2329,7 +2106,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2347,14 +2124,14 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="28" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2365,23 +2142,23 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="A7" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>159</v>
+      <c r="A8" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2391,11 +2168,11 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>165</v>
+      <c r="A9" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2404,11 +2181,11 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>164</v>
+      <c r="A10" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2436,458 +2213,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A366A20-45AB-4738-AE10-5DBEE540878C}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="4" width="24.85546875" style="32"/>
-    <col min="5" max="5" width="28.28515625" style="32" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" style="32"/>
-    <col min="8" max="8" width="32.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="24.85546875" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A8:H8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{3118D51B-CFE0-4C3B-98F0-913AC1D747CC}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{0A9569F5-8800-4CEE-BDD2-BC19D54984E4}"/>
-    <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{3580AB25-53B8-41B4-B2F6-24686492A8B8}"/>
-    <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{E8254F43-5B3D-475F-B73E-ADDCA950D315}"/>
-    <hyperlink ref="G3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{D40FB8A2-920A-426C-83EE-0488828D08ED}"/>
-    <hyperlink ref="A12" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{BDC710D2-4847-4B1D-AB60-00F3FFB329F8}"/>
-    <hyperlink ref="A6" r:id="rId7" display="https://khamsat.com/" xr:uid="{BC8F7729-88BE-418A-9304-DBC0EDA9A86A}"/>
-    <hyperlink ref="H3" r:id="rId8" display="https://99designs.com/" xr:uid="{7C01B712-DCF6-4B15-A475-5DBF4A377503}"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{97878E78-55B1-46FA-A024-25AA1CEE3D5E}"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{B05BA28D-4656-4084-BA1A-195B6EFC96E7}"/>
-    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{BA23FE8A-761D-42A0-AD4B-164F0A25B2F1}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{ED8CBB0C-1586-4D0F-AAFA-CBB4E738467E}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{2C16371D-93AE-4557-8580-B519C5C4F9F5}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{C08B5756-2974-4B38-93E4-CB7DA20EAE27}"/>
-    <hyperlink ref="A3" r:id="rId14" xr:uid="{1C6EDB05-B0A4-41D0-B71F-6BACD90C4175}"/>
-    <hyperlink ref="A9" r:id="rId15" xr:uid="{77DADD7C-6906-491A-92FA-BE4C9763A57D}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{5AD40EDC-AD67-47B8-BD78-747EB1750797}"/>
-    <hyperlink ref="H13" location="FreelancersPeople!A1" display="Freelancers People" xr:uid="{2609BFF3-38AF-409F-8923-4FC5B9D6D4C4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE8946F-1CF4-43E9-B285-833831E147AE}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C9E239ED-A517-4366-9D77-17BB6CF4DAC9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E51287-1DA7-42BA-90C4-2B6689042D42}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2943,7 +2268,7 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,4 +2299,143 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="21.5703125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:I5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://union-courier.net/BM_Portal_1.html" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://uxcenters.com/" xr:uid="{1D29879C-7C8C-4F5F-BF12-EB1F6C1BA462}"/>
+    <hyperlink ref="F2" r:id="rId6" display="https://www.xceedcc.com/" xr:uid="{6A716BD9-49EA-4976-9305-216AC0A6B494}"/>
+    <hyperlink ref="G2" r:id="rId7" display="https://www.rayacx.com/" xr:uid="{AC099443-51B6-42A8-ABFD-4A12DB4BAF1B}"/>
+    <hyperlink ref="H2" r:id="rId8" display="https://www.majorel.com/" xr:uid="{57D91799-288F-45DF-8B4E-4E3D1C8403A0}"/>
+    <hyperlink ref="I1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4E155103-D4BF-42ED-BFF9-D6E7DAA07C66}"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://youth.europa.eu/solidarity/placement/32596_en" xr:uid="{A3EB02E2-0776-4964-B173-4B4FECA90B33}"/>
+    <hyperlink ref="A7" r:id="rId10" display="https://www.stepstone.de/?authEvent=googleRegister&amp;lang=de" xr:uid="{131D3D21-4748-4CE2-9D8F-DEF73D2FDAC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
 </file>
--- a/HTML/Jobs.xlsx
+++ b/HTML/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEA08DC-A013-4EB7-A819-015FE7F07434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2719CC7F-073D-49A0-9FFF-4524BA64CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -279,9 +279,6 @@
     <t>FCISGraduateGroup</t>
   </si>
   <si>
-    <t>men7h</t>
-  </si>
-  <si>
     <t>اسال هنا عن الشركه</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>EG-Bank</t>
   </si>
   <si>
-    <t>بنك القاهرة</t>
-  </si>
-  <si>
     <t>CIB</t>
   </si>
   <si>
@@ -535,6 +529,44 @@
   </si>
   <si>
     <t>Alex Bank</t>
+  </si>
+  <si>
+    <t>🟢 FocusGroup - https://tedgetsbread.com/go/focusgrou...
+🟢 SeetGeek - https://seatgeek.com/jobs?oq=jobs+352...
+🟢 Nielsen - https://tedgetsbread.com/go/nielsen-t...
+🟢 AnalogSF - https://www.analogsf.com/contact-us/w...
+🟢 Swagbucks - https://tedgetsbread.com/go/swagbucks...
+🟢 Appen - https://connect.appen.com/
+🟢 Toloka - https://tedgetsbread.com/go/toloka-yt/
+🟢 Product Report Card - https://tedgetsbread.com/go/product-r...
+🟢 Good Nature Program - https://goodnatureprogram.com/
+🟢 Clickworker - https://tedgetsbread.com/go/clickwork...
+🟢 WeGoLook - https://wegolook.com/lookers/</t>
+  </si>
+  <si>
+    <t>Career Jet</t>
+  </si>
+  <si>
+    <t>Internships &amp; Full-Time</t>
+  </si>
+  <si>
+    <t>Egyptian Bankers</t>
+  </si>
+  <si>
+    <t>Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Finder
+[ 20084719473 ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDC </t>
+  </si>
+  <si>
+    <t>NBE</t>
+  </si>
+  <si>
+    <t>ايميل بنك السويس</t>
   </si>
 </sst>
 </file>
@@ -777,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,10 +1196,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1183,22 +1218,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>8</v>
@@ -1249,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
@@ -1267,7 +1302,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
@@ -1276,7 +1311,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>34</v>
@@ -1294,19 +1329,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>69</v>
@@ -1321,10 +1356,10 @@
         <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>71</v>
@@ -1336,7 +1371,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>31</v>
@@ -1348,26 +1383,32 @@
         <v>75</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>39</v>
@@ -1378,7 +1419,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1386,7 +1427,7 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>41</v>
@@ -1397,19 +1438,8 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1472,9 +1502,12 @@
     <hyperlink ref="D5" r:id="rId50" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
     <hyperlink ref="B4" r:id="rId51" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
     <hyperlink ref="I9" r:id="rId52" display="Home" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
+    <hyperlink ref="E7" r:id="rId53" display="careerjet" xr:uid="{C79BFF6A-4755-4095-9353-DDCF903155E0}"/>
+    <hyperlink ref="F7" r:id="rId54" xr:uid="{533657A4-ABE7-4CD6-BB3B-A4919B769C60}"/>
+    <hyperlink ref="G7" r:id="rId55" display="https://www.facebook.com/groups/20084719473" xr:uid="{B08AC49B-DE56-4C26-A613-874F9D1C9D0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -1490,23 +1523,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,10 +1559,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1568,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1619,11 +1652,11 @@
         <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="8" t="s">
@@ -1646,10 +1679,10 @@
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1737,7 +1770,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,10 +1791,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -1770,7 +1803,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1780,10 +1813,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -1792,49 +1825,49 @@
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="22"/>
     </row>
@@ -1880,13 +1913,13 @@
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -1929,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB56B96-DA60-4871-ABFB-0C91284AC1F1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="51" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1941,59 +1974,63 @@
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
@@ -2013,14 +2050,16 @@
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="16" t="s">
-        <v>134</v>
+      <c r="F6" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2034,25 +2073,29 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.linkedin.com/company/banque-misr/jobs" xr:uid="{DB557C5C-278D-4D94-9166-9ACC48BB3C5A}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://caegypt.taleo.net/careersection/ex/jobdetail.ftl" xr:uid="{5AD16224-A5AC-490F-9D05-35800930803A}"/>
-    <hyperlink ref="C1" r:id="rId3" display="https://www.saib.com.eg/ar/careers" xr:uid="{9023EB66-1132-49AF-A03B-A409769C26C9}"/>
-    <hyperlink ref="D1" r:id="rId4" display="https://www.attijariwafabank.com.eg/career" xr:uid="{23B39F56-B321-41CB-A132-FA9BE491AC3C}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://caegypt.taleo.net/careersection/ex/jobdetail.ftl" xr:uid="{5AD16224-A5AC-490F-9D05-35800930803A}"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://www.saib.com.eg/ar/careers" xr:uid="{9023EB66-1132-49AF-A03B-A409769C26C9}"/>
+    <hyperlink ref="F2" r:id="rId4" display="https://www.attijariwafabank.com.eg/career" xr:uid="{23B39F56-B321-41CB-A132-FA9BE491AC3C}"/>
     <hyperlink ref="E1" r:id="rId5" display="https://mycareer.hsbc.com/en_GB/external/SearchJobs/?1017=%5B67230%5D&amp;1017_format=812&amp;listFilterMode=1&amp;pipelineRecordsPerPage=10&amp;pipelineOffset=0" xr:uid="{A90D2182-7631-4494-94E4-9429D7949A7B}"/>
     <hyperlink ref="A2" r:id="rId6" display="https://www.linkedin.com/company/bank-of-alexandria/jobs" xr:uid="{52301C58-21A0-4265-AD19-AF9C15FDE733}"/>
-    <hyperlink ref="E2" r:id="rId7" display="https://www.fabmisr.com.eg/en/about-fab/careers/apply-career" xr:uid="{70B6FF67-1D98-4DD8-A2C8-30C931DC26C5}"/>
+    <hyperlink ref="C2" r:id="rId7" display="https://www.fabmisr.com.eg/en/about-fab/careers/apply-career" xr:uid="{70B6FF67-1D98-4DD8-A2C8-30C931DC26C5}"/>
     <hyperlink ref="A3" r:id="rId8" display="https://www.aibegypt.com/career/" xr:uid="{8A094EAD-51E7-4521-AB83-FB7F7B0B26CE}"/>
-    <hyperlink ref="F2" r:id="rId9" display="https://careers.eahli.com/go/Retail-Banking-%28Branches%29/4313901" xr:uid="{E892E154-D2C6-477E-BD61-021A75CBF35E}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://career2.successfactors.eu/career?company=egyptiangu&amp;career%5fns=job%5flisting%5fsummary&amp;navBarLevel=JOB%5fSEARCH&amp;_s.crb=a%2bBUZ2MKAE9LTaGcjuvSsCMhxPKwssmmF3cnHBJ%2bLFc%3d" xr:uid="{EF72DBD0-413F-48EB-A45F-FF9D1B0B2E86}"/>
-    <hyperlink ref="C2" r:id="rId11" display="https://www.bdc.com.eg/bdcwebsite/careers.html" xr:uid="{7DBE5839-7348-4BD2-BBFD-EFE18FE1EC49}"/>
-    <hyperlink ref="F1" r:id="rId12" display="https://cibeg.taleo.net/careersection/cib_ex/jobsearch.ftl" xr:uid="{47A037A2-A2F9-4171-9EC3-F5EB1EB18D94}"/>
+    <hyperlink ref="D2" r:id="rId9" display="https://careers.eahli.com/go/Retail-Banking-%28Branches%29/4313901" xr:uid="{E892E154-D2C6-477E-BD61-021A75CBF35E}"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://career2.successfactors.eu/career?company=egyptiangu&amp;career%5fns=job%5flisting%5fsummary&amp;navBarLevel=JOB%5fSEARCH&amp;_s.crb=a%2bBUZ2MKAE9LTaGcjuvSsCMhxPKwssmmF3cnHBJ%2bLFc%3d" xr:uid="{EF72DBD0-413F-48EB-A45F-FF9D1B0B2E86}"/>
+    <hyperlink ref="F1" r:id="rId11" xr:uid="{7DBE5839-7348-4BD2-BBFD-EFE18FE1EC49}"/>
+    <hyperlink ref="D1" r:id="rId12" display="https://cibeg.taleo.net/careersection/cib_ex/jobsearch.ftl" xr:uid="{47A037A2-A2F9-4171-9EC3-F5EB1EB18D94}"/>
     <hyperlink ref="B3" r:id="rId13" display="https://www.adcb.com.eg/about-us/careers/apply-now/" xr:uid="{B7439791-B305-4647-BBD9-9EC453CA3213}"/>
     <hyperlink ref="C3" r:id="rId14" display="https://midbank.com.eg/Job.aspx?Lid=10" xr:uid="{603E97A4-C2D7-491C-A348-8127B524377F}"/>
     <hyperlink ref="D3" r:id="rId15" display="https://arabbank.taleo.net/careersection/ab_external/joblist.ftl" xr:uid="{6A4781E1-B27C-4E51-BC1E-FE7A1C62E287}"/>
     <hyperlink ref="A6" r:id="rId16" display="http://www.howtobeabanker.com/" xr:uid="{407F538B-DB10-4E32-B33E-4721B2083D88}"/>
     <hyperlink ref="F6" location="Jobs!A1" display="Back &lt;--" xr:uid="{173DE094-30CD-4A3F-9B5B-8A0E8C0D8276}"/>
-    <hyperlink ref="B2" r:id="rId17" xr:uid="{BA5C4275-FB61-4F21-9800-54E3C855CF46}"/>
+    <hyperlink ref="C1" r:id="rId17" xr:uid="{BA5C4275-FB61-4F21-9800-54E3C855CF46}"/>
+    <hyperlink ref="B6" r:id="rId18" xr:uid="{652E980D-B6AB-4BB7-9A61-99EF781489A8}"/>
+    <hyperlink ref="B1" r:id="rId19" location="/AR/HRApplications" xr:uid="{259FADA2-9A44-4971-92F6-2AE923C22B3A}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{BA20F195-7031-4223-A198-92695052DAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2078,14 +2121,14 @@
         <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,7 +2136,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2106,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2131,7 +2174,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2142,12 +2185,12 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -2158,7 +2201,7 @@
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2169,10 +2212,10 @@
     </row>
     <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2182,10 +2225,10 @@
     </row>
     <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2268,7 +2311,7 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2359,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2326,33 +2369,33 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="I2" s="25"/>
     </row>
@@ -2369,7 +2412,7 @@
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -2395,7 +2438,7 @@
     </row>
     <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2417,10 +2460,18 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
+    <row r="10" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
